--- a/电影.xlsx
+++ b/电影.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="764">
   <si>
     <t>肖申克的救赎</t>
   </si>
   <si>
-    <t>1116962人评价</t>
+    <t>1122587人评价</t>
   </si>
   <si>
     <t>9.6</t>
@@ -32,7 +32,7 @@
     <t>霸王别姬</t>
   </si>
   <si>
-    <t>815015人评价</t>
+    <t>818830人评价</t>
   </si>
   <si>
     <t>9.5</t>
@@ -44,7 +44,7 @@
     <t>这个杀手不太冷</t>
   </si>
   <si>
-    <t>1035401人评价</t>
+    <t>1040035人评价</t>
   </si>
   <si>
     <t>9.4</t>
@@ -56,7 +56,7 @@
     <t>阿甘正传</t>
   </si>
   <si>
-    <t>882652人评价</t>
+    <t>886791人评价</t>
   </si>
   <si>
     <t>一部美国近现代史。</t>
@@ -65,7 +65,7 @@
     <t>美丽人生</t>
   </si>
   <si>
-    <t>515091人评价</t>
+    <t>517541人评价</t>
   </si>
   <si>
     <t>最美的谎言。</t>
@@ -74,7 +74,7 @@
     <t>泰坦尼克号</t>
   </si>
   <si>
-    <t>821022人评价</t>
+    <t>824428人评价</t>
   </si>
   <si>
     <t>9.3</t>
@@ -86,7 +86,7 @@
     <t>千与千寻</t>
   </si>
   <si>
-    <t>821626人评价</t>
+    <t>824897人评价</t>
   </si>
   <si>
     <t xml:space="preserve">最好的宫崎骏，最好的久石让。 </t>
@@ -95,7 +95,7 @@
     <t>辛德勒的名单</t>
   </si>
   <si>
-    <t>466127人评价</t>
+    <t>468204人评价</t>
   </si>
   <si>
     <t>拯救一个人，就是拯救整个世界。</t>
@@ -104,7 +104,7 @@
     <t>盗梦空间</t>
   </si>
   <si>
-    <t>909701人评价</t>
+    <t>913051人评价</t>
   </si>
   <si>
     <t>诺兰给了我们一场无法盗取的梦。</t>
@@ -113,7 +113,7 @@
     <t>机器人总动员</t>
   </si>
   <si>
-    <t>599642人评价</t>
+    <t>602037人评价</t>
   </si>
   <si>
     <t>小瓦力，大人生。</t>
@@ -122,7 +122,7 @@
     <t>忠犬八公的故事</t>
   </si>
   <si>
-    <t>577582人评价</t>
+    <t>580537人评价</t>
   </si>
   <si>
     <t>永远都不能忘记你所爱的人。</t>
@@ -131,7 +131,7 @@
     <t>三傻大闹宝莱坞</t>
   </si>
   <si>
-    <t>817720人评价</t>
+    <t>820246人评价</t>
   </si>
   <si>
     <t>9.2</t>
@@ -143,7 +143,7 @@
     <t>海上钢琴师</t>
   </si>
   <si>
-    <t>690299人评价</t>
+    <t>691925人评价</t>
   </si>
   <si>
     <t xml:space="preserve">每个人都要走一条自己坚定了的路，就算是粉身碎骨。 </t>
@@ -152,7 +152,7 @@
     <t>放牛班的春天</t>
   </si>
   <si>
-    <t>554332人评价</t>
+    <t>556824人评价</t>
   </si>
   <si>
     <t xml:space="preserve">天籁一般的童声，是最接近上帝的存在。 </t>
@@ -161,7 +161,7 @@
     <t>大话西游之大圣娶亲</t>
   </si>
   <si>
-    <t>608895人评价</t>
+    <t>611621人评价</t>
   </si>
   <si>
     <t>一生所爱。</t>
@@ -170,7 +170,7 @@
     <t>楚门的世界</t>
   </si>
   <si>
-    <t>584045人评价</t>
+    <t>586981人评价</t>
   </si>
   <si>
     <t>9.1</t>
@@ -182,7 +182,7 @@
     <t>教父</t>
   </si>
   <si>
-    <t>411845人评价</t>
+    <t>413542人评价</t>
   </si>
   <si>
     <t>千万不要记恨你的对手，这样会让你失去理智。</t>
@@ -191,7 +191,7 @@
     <t>龙猫</t>
   </si>
   <si>
-    <t>506965人评价</t>
+    <t>508682人评价</t>
   </si>
   <si>
     <t>人人心中都有个龙猫，童年就永远不会消失。</t>
@@ -200,7 +200,7 @@
     <t>星际穿越</t>
   </si>
   <si>
-    <t>606484人评价</t>
+    <t>609173人评价</t>
   </si>
   <si>
     <t>爱是一种力量，让我们超越时空感知它的存在。</t>
@@ -209,7 +209,7 @@
     <t>熔炉</t>
   </si>
   <si>
-    <t>337492人评价</t>
+    <t>339153人评价</t>
   </si>
   <si>
     <t>我们一路奋战不是为了改变世界，而是为了不让世界改变我们。</t>
@@ -218,7 +218,7 @@
     <t>无间道</t>
   </si>
   <si>
-    <t>495287人评价</t>
+    <t>497560人评价</t>
   </si>
   <si>
     <t>香港电影史上永不过时的杰作。</t>
@@ -227,7 +227,7 @@
     <t>触不可及</t>
   </si>
   <si>
-    <t>442243人评价</t>
+    <t>443427人评价</t>
   </si>
   <si>
     <t>满满温情的高雅喜剧。</t>
@@ -236,7 +236,7 @@
     <t>乱世佳人</t>
   </si>
   <si>
-    <t>316873人评价</t>
+    <t>317885人评价</t>
   </si>
   <si>
     <t>Tomorrow is another day.</t>
@@ -245,7 +245,7 @@
     <t>当幸福来敲门</t>
   </si>
   <si>
-    <t>652575人评价</t>
+    <t>655312人评价</t>
   </si>
   <si>
     <t>9.0</t>
@@ -257,7 +257,7 @@
     <t>怦然心动</t>
   </si>
   <si>
-    <t>695076人评价</t>
+    <t>698419人评价</t>
   </si>
   <si>
     <t>8.9</t>
@@ -269,7 +269,7 @@
     <t>天堂电影院</t>
   </si>
   <si>
-    <t>352313人评价</t>
+    <t>353025人评价</t>
   </si>
   <si>
     <t>那些吻戏，那些青春，都在影院的黑暗里被泪水冲刷得无比清晰。</t>
@@ -278,7 +278,7 @@
     <t>疯狂动物城</t>
   </si>
   <si>
-    <t>650758人评价</t>
+    <t>654807人评价</t>
   </si>
   <si>
     <t>迪士尼给我们营造的乌托邦就是这样，永远善良勇敢，永远出乎意料。</t>
@@ -287,7 +287,7 @@
     <t>蝙蝠侠：黑暗骑士</t>
   </si>
   <si>
-    <t>400113人评价</t>
+    <t>402156人评价</t>
   </si>
   <si>
     <t>无尽的黑暗。</t>
@@ -296,7 +296,7 @@
     <t>十二怒汉</t>
   </si>
   <si>
-    <t>202704人评价</t>
+    <t>203446人评价</t>
   </si>
   <si>
     <t xml:space="preserve">1957年的理想主义。 </t>
@@ -305,7 +305,7 @@
     <t>鬼子来了</t>
   </si>
   <si>
-    <t>281727人评价</t>
+    <t>282631人评价</t>
   </si>
   <si>
     <t>对敌人的仁慈，就是对自己残忍。</t>
@@ -314,7 +314,7 @@
     <t>活着</t>
   </si>
   <si>
-    <t>332046人评价</t>
+    <t>333432人评价</t>
   </si>
   <si>
     <t>张艺谋最好的电影。</t>
@@ -323,70 +323,70 @@
     <t>少年派的奇幻漂流</t>
   </si>
   <si>
-    <t>680421人评价</t>
+    <t>682703人评价</t>
   </si>
   <si>
     <t>瑰丽壮观、无人能及的冒险之旅。</t>
   </si>
   <si>
+    <t>指环王3：王者无敌</t>
+  </si>
+  <si>
+    <t>336059人评价</t>
+  </si>
+  <si>
+    <t>史诗的终章。</t>
+  </si>
+  <si>
     <t>搏击俱乐部</t>
   </si>
   <si>
-    <t>452363人评价</t>
+    <t>453390人评价</t>
   </si>
   <si>
     <t>邪恶与平庸蛰伏于同一个母体，在特定的时间互相对峙。</t>
   </si>
   <si>
-    <t>指环王3：王者无敌</t>
-  </si>
-  <si>
-    <t>334634人评价</t>
-  </si>
-  <si>
-    <t>史诗的终章。</t>
-  </si>
-  <si>
     <t>天空之城</t>
   </si>
   <si>
-    <t>392653人评价</t>
+    <t>393851人评价</t>
   </si>
   <si>
     <t xml:space="preserve">对天空的追逐，永不停止。 </t>
   </si>
   <si>
+    <t>控方证人</t>
+  </si>
+  <si>
+    <t>129040人评价</t>
+  </si>
+  <si>
+    <t>比利·怀德满分作品。</t>
+  </si>
+  <si>
+    <t>大话西游之月光宝盒</t>
+  </si>
+  <si>
+    <t>492064人评价</t>
+  </si>
+  <si>
+    <t>旷古烁今。</t>
+  </si>
+  <si>
     <t>飞屋环游记</t>
   </si>
   <si>
-    <t>594129人评价</t>
+    <t>596469人评价</t>
   </si>
   <si>
     <t xml:space="preserve">最后那些最无聊的事情，才是最值得怀念的。 </t>
   </si>
   <si>
-    <t>大话西游之月光宝盒</t>
-  </si>
-  <si>
-    <t>490007人评价</t>
-  </si>
-  <si>
-    <t>旷古烁今。</t>
-  </si>
-  <si>
-    <t>控方证人</t>
-  </si>
-  <si>
-    <t>128123人评价</t>
-  </si>
-  <si>
-    <t>比利·怀德满分作品。</t>
-  </si>
-  <si>
     <t>罗马假日</t>
   </si>
   <si>
-    <t>452607人评价</t>
+    <t>454061人评价</t>
   </si>
   <si>
     <t>爱情哪怕只有一天。</t>
@@ -395,7 +395,7 @@
     <t>窃听风暴</t>
   </si>
   <si>
-    <t>266223人评价</t>
+    <t>267156人评价</t>
   </si>
   <si>
     <t>别样人生。</t>
@@ -404,7 +404,7 @@
     <t>两杆大烟枪</t>
   </si>
   <si>
-    <t>311621人评价</t>
+    <t>312579人评价</t>
   </si>
   <si>
     <t>4个臭皮匠顶个诸葛亮，盖·里奇果然不是盖的。</t>
@@ -413,34 +413,34 @@
     <t>飞越疯人院</t>
   </si>
   <si>
-    <t>315036人评价</t>
+    <t>315752人评价</t>
   </si>
   <si>
     <t>自由万岁。</t>
   </si>
   <si>
+    <t>哈尔的移动城堡</t>
+  </si>
+  <si>
+    <t>423486人评价</t>
+  </si>
+  <si>
+    <t>带着心爱的人在天空飞翔。</t>
+  </si>
+  <si>
     <t>闻香识女人</t>
   </si>
   <si>
-    <t>382797人评价</t>
+    <t>384096人评价</t>
   </si>
   <si>
     <t>史上最美的探戈。</t>
   </si>
   <si>
-    <t>哈尔的移动城堡</t>
-  </si>
-  <si>
-    <t>422059人评价</t>
-  </si>
-  <si>
-    <t>带着心爱的人在天空飞翔。</t>
-  </si>
-  <si>
     <t>辩护人</t>
   </si>
   <si>
-    <t>260590人评价</t>
+    <t>261855人评价</t>
   </si>
   <si>
     <t>电影的现实意义大过电影本身。</t>
@@ -449,7 +449,7 @@
     <t>摔跤吧！爸爸</t>
   </si>
   <si>
-    <t>578546人评价</t>
+    <t>582075人评价</t>
   </si>
   <si>
     <t>你不是在为你一个人战斗，你要让千千万万的女性看到女生并不是只能相夫教子。</t>
@@ -458,7 +458,7 @@
     <t>V字仇杀队</t>
   </si>
   <si>
-    <t>496244人评价</t>
+    <t>498167人评价</t>
   </si>
   <si>
     <t>8.8</t>
@@ -467,28 +467,28 @@
     <t>一张面具背后的理想与革命。</t>
   </si>
   <si>
+    <t>死亡诗社</t>
+  </si>
+  <si>
+    <t>330689人评价</t>
+  </si>
+  <si>
+    <t>当一个死水般的体制内出现一个活跃的变数时，所有的腐臭都站在了光明的对面。</t>
+  </si>
+  <si>
     <t>海豚湾</t>
   </si>
   <si>
-    <t>206358人评价</t>
+    <t>206915人评价</t>
   </si>
   <si>
     <t>海豚的微笑，是世界上最高明的伪装。</t>
   </si>
   <si>
-    <t>死亡诗社</t>
-  </si>
-  <si>
-    <t>329578人评价</t>
-  </si>
-  <si>
-    <t>当一个死水般的体制内出现一个活跃的变数时，所有的腐臭都站在了光明的对面。</t>
-  </si>
-  <si>
     <t>教父2</t>
   </si>
   <si>
-    <t>222141人评价</t>
+    <t>223099人评价</t>
   </si>
   <si>
     <t>优雅的孤独。</t>
@@ -497,7 +497,7 @@
     <t>指环王2：双塔奇兵</t>
   </si>
   <si>
-    <t>314291人评价</t>
+    <t>315553人评价</t>
   </si>
   <si>
     <t>承前启后的史诗篇章。</t>
@@ -506,7 +506,7 @@
     <t>美丽心灵</t>
   </si>
   <si>
-    <t>352974人评价</t>
+    <t>354138人评价</t>
   </si>
   <si>
     <t>爱是一切逻辑和原由。</t>
@@ -515,7 +515,7 @@
     <t>指环王1：魔戒再现</t>
   </si>
   <si>
-    <t>351785人评价</t>
+    <t>353219人评价</t>
   </si>
   <si>
     <t>传说的开始。</t>
@@ -524,7 +524,7 @@
     <t>饮食男女</t>
   </si>
   <si>
-    <t>240643人评价</t>
+    <t>241414人评价</t>
   </si>
   <si>
     <t>人生不能像做菜，把所有的料都准备好了才下锅。</t>
@@ -533,7 +533,7 @@
     <t>情书</t>
   </si>
   <si>
-    <t>433192人评价</t>
+    <t>434277人评价</t>
   </si>
   <si>
     <t>暗恋的极致。</t>
@@ -542,7 +542,7 @@
     <t>美国往事</t>
   </si>
   <si>
-    <t>201994人评价</t>
+    <t>202581人评价</t>
   </si>
   <si>
     <t>往事如烟，无处祭奠。</t>
@@ -551,7 +551,7 @@
     <t>狮子王</t>
   </si>
   <si>
-    <t>329890人评价</t>
+    <t>331176人评价</t>
   </si>
   <si>
     <t>动物版《哈姆雷特》。</t>
@@ -560,7 +560,7 @@
     <t>素媛</t>
   </si>
   <si>
-    <t>223898人评价</t>
+    <t>224884人评价</t>
   </si>
   <si>
     <t>受过伤害的人总是笑得最开心，因为他们不愿意让身边的人承受一样的痛苦。</t>
@@ -569,7 +569,7 @@
     <t>钢琴家</t>
   </si>
   <si>
-    <t>232604人评价</t>
+    <t>233415人评价</t>
   </si>
   <si>
     <t>音乐能化解仇恨。</t>
@@ -578,7 +578,7 @@
     <t>小鞋子</t>
   </si>
   <si>
-    <t>165560人评价</t>
+    <t>166257人评价</t>
   </si>
   <si>
     <t>奔跑的孩子是天使。</t>
@@ -587,7 +587,7 @@
     <t>七宗罪</t>
   </si>
   <si>
-    <t>490849人评价</t>
+    <t>492203人评价</t>
   </si>
   <si>
     <t>8.7</t>
@@ -596,37 +596,37 @@
     <t>警察抓小偷，老鼠玩死猫。</t>
   </si>
   <si>
+    <t>被嫌弃的松子的一生</t>
+  </si>
+  <si>
+    <t>346392人评价</t>
+  </si>
+  <si>
+    <t>以戏谑来戏谑戏谑。</t>
+  </si>
+  <si>
+    <t>致命魔术</t>
+  </si>
+  <si>
+    <t>398831人评价</t>
+  </si>
+  <si>
+    <t>孪生蝙蝠侠大战克隆金刚狼。</t>
+  </si>
+  <si>
     <t>天使爱美丽</t>
   </si>
   <si>
-    <t>546461人评价</t>
+    <t>548004人评价</t>
   </si>
   <si>
     <t xml:space="preserve">法式小清新。 </t>
   </si>
   <si>
-    <t>被嫌弃的松子的一生</t>
-  </si>
-  <si>
-    <t>344792人评价</t>
-  </si>
-  <si>
-    <t>以戏谑来戏谑戏谑。</t>
-  </si>
-  <si>
-    <t>致命魔术</t>
-  </si>
-  <si>
-    <t>397457人评价</t>
-  </si>
-  <si>
-    <t>孪生蝙蝠侠大战克隆金刚狼。</t>
-  </si>
-  <si>
     <t>本杰明·巴顿奇事</t>
   </si>
   <si>
-    <t>451077人评价</t>
+    <t>452441人评价</t>
   </si>
   <si>
     <t>在时间之河里感受溺水之苦。</t>
@@ -635,7 +635,7 @@
     <t>西西里的美丽传说</t>
   </si>
   <si>
-    <t>415034人评价</t>
+    <t>416736人评价</t>
   </si>
   <si>
     <t>美丽无罪。</t>
@@ -644,52 +644,52 @@
     <t>音乐之声</t>
   </si>
   <si>
-    <t>265831人评价</t>
+    <t>266789人评价</t>
   </si>
   <si>
     <t>用音乐化解仇恨，让歌声串起美好。</t>
   </si>
   <si>
+    <t>拯救大兵瑞恩</t>
+  </si>
+  <si>
+    <t>282201人评价</t>
+  </si>
+  <si>
+    <t>美利坚精神输出大片No1.</t>
+  </si>
+  <si>
     <t>勇敢的心</t>
   </si>
   <si>
-    <t>328832人评价</t>
+    <t>329743人评价</t>
   </si>
   <si>
     <t>史诗大片的典范。</t>
   </si>
   <si>
-    <t>拯救大兵瑞恩</t>
-  </si>
-  <si>
-    <t>280965人评价</t>
-  </si>
-  <si>
-    <t>美利坚精神输出大片No1.</t>
+    <t>黑客帝国</t>
+  </si>
+  <si>
+    <t>329013人评价</t>
+  </si>
+  <si>
+    <t>视觉革命。</t>
   </si>
   <si>
     <t>让子弹飞</t>
   </si>
   <si>
-    <t>732202人评价</t>
+    <t>734708人评价</t>
   </si>
   <si>
     <t>你给我翻译翻译，神马叫做TMD的惊喜。</t>
   </si>
   <si>
-    <t>黑客帝国</t>
-  </si>
-  <si>
-    <t>327575人评价</t>
-  </si>
-  <si>
-    <t>视觉革命。</t>
-  </si>
-  <si>
     <t>低俗小说</t>
   </si>
   <si>
-    <t>387910人评价</t>
+    <t>389267人评价</t>
   </si>
   <si>
     <t>故事的高级讲法。</t>
@@ -698,7 +698,7 @@
     <t>看不见的客人</t>
   </si>
   <si>
-    <t>426753人评价</t>
+    <t>429141人评价</t>
   </si>
   <si>
     <t>你以为你以为的就是你以为的。</t>
@@ -707,7 +707,7 @@
     <t>剪刀手爱德华</t>
   </si>
   <si>
-    <t>551682人评价</t>
+    <t>553307人评价</t>
   </si>
   <si>
     <t>浪漫忧郁的成人童话。</t>
@@ -716,7 +716,7 @@
     <t>沉默的羔羊</t>
   </si>
   <si>
-    <t>402392人评价</t>
+    <t>403327人评价</t>
   </si>
   <si>
     <t>安东尼·霍普金斯的顶级表演。</t>
@@ -725,7 +725,7 @@
     <t>蝴蝶效应</t>
   </si>
   <si>
-    <t>437469人评价</t>
+    <t>438919人评价</t>
   </si>
   <si>
     <t>人的命运被自己瞬间的抉择改变。</t>
@@ -734,34 +734,34 @@
     <t>大闹天宫</t>
   </si>
   <si>
-    <t>123198人评价</t>
+    <t>124212人评价</t>
   </si>
   <si>
     <t>经典之作，历久弥新。</t>
   </si>
   <si>
+    <t>末代皇帝</t>
+  </si>
+  <si>
+    <t>210370人评价</t>
+  </si>
+  <si>
+    <t>“不要跟我比惨，我比你更惨”再适合这部电影不过了。</t>
+  </si>
+  <si>
     <t>入殓师</t>
   </si>
   <si>
-    <t>350408人评价</t>
+    <t>351081人评价</t>
   </si>
   <si>
     <t>死可能是一道门，逝去并不是终结，而是超越，走向下一程。</t>
   </si>
   <si>
-    <t>末代皇帝</t>
-  </si>
-  <si>
-    <t>209148人评价</t>
-  </si>
-  <si>
-    <t>“不要跟我比惨，我比你更惨”再适合这部电影不过了。</t>
-  </si>
-  <si>
     <t>春光乍泄</t>
   </si>
   <si>
-    <t>287020人评价</t>
+    <t>287926人评价</t>
   </si>
   <si>
     <t>爱情纠缠，男女一致。</t>
@@ -770,7 +770,7 @@
     <t>心灵捕手</t>
   </si>
   <si>
-    <t>314819人评价</t>
+    <t>316114人评价</t>
   </si>
   <si>
     <t>人生中应该拥有这样的一段豁然开朗。</t>
@@ -779,34 +779,34 @@
     <t>玛丽和马克思</t>
   </si>
   <si>
-    <t>253561人评价</t>
+    <t>254256人评价</t>
   </si>
   <si>
     <t>你是我最好的朋友，你是我唯一的朋友 。</t>
   </si>
   <si>
+    <t>哈利·波特与魔法石</t>
+  </si>
+  <si>
+    <t>315326人评价</t>
+  </si>
+  <si>
+    <t>童话世界的开端。</t>
+  </si>
+  <si>
     <t>阳光灿烂的日子</t>
   </si>
   <si>
-    <t>313141人评价</t>
+    <t>313996人评价</t>
   </si>
   <si>
     <t>一场华丽的意淫。</t>
   </si>
   <si>
-    <t>哈利·波特与魔法石</t>
-  </si>
-  <si>
-    <t>313478人评价</t>
-  </si>
-  <si>
-    <t>童话世界的开端。</t>
-  </si>
-  <si>
     <t>布达佩斯大饭店</t>
   </si>
   <si>
-    <t>374908人评价</t>
+    <t>376554人评价</t>
   </si>
   <si>
     <t>小清新的故事里注入了大历史的情怀。</t>
@@ -815,34 +815,34 @@
     <t>幽灵公主</t>
   </si>
   <si>
-    <t>267723人评价</t>
+    <t>268508人评价</t>
   </si>
   <si>
     <t>人与自然的战争史诗。</t>
   </si>
   <si>
+    <t>禁闭岛</t>
+  </si>
+  <si>
+    <t>416797人评价</t>
+  </si>
+  <si>
+    <t>昔日翩翩少年，今日大腹便便。</t>
+  </si>
+  <si>
     <t>第六感</t>
   </si>
   <si>
-    <t>266450人评价</t>
+    <t>267400人评价</t>
   </si>
   <si>
     <t>深入内心的恐怖，出人意料的结局。</t>
   </si>
   <si>
-    <t>禁闭岛</t>
-  </si>
-  <si>
-    <t>415280人评价</t>
-  </si>
-  <si>
-    <t>昔日翩翩少年，今日大腹便便。</t>
-  </si>
-  <si>
     <t>重庆森林</t>
   </si>
   <si>
-    <t>380569人评价</t>
+    <t>381571人评价</t>
   </si>
   <si>
     <t>寂寞没有期限。</t>
@@ -851,7 +851,7 @@
     <t>猫鼠游戏</t>
   </si>
   <si>
-    <t>274936人评价</t>
+    <t>276424人评价</t>
   </si>
   <si>
     <t xml:space="preserve">骗子大师和执著警探的你追我跑故事。 </t>
@@ -860,7 +860,7 @@
     <t>狩猎</t>
   </si>
   <si>
-    <t>154192人评价</t>
+    <t>154784人评价</t>
   </si>
   <si>
     <t>人言可畏。</t>
@@ -869,7 +869,7 @@
     <t>致命ID</t>
   </si>
   <si>
-    <t>365426人评价</t>
+    <t>366775人评价</t>
   </si>
   <si>
     <t>最不可能的那个人永远是最可能的。</t>
@@ -878,7 +878,7 @@
     <t>断背山</t>
   </si>
   <si>
-    <t>364097人评价</t>
+    <t>365182人评价</t>
   </si>
   <si>
     <t>每个人心中都有一座断背山。</t>
@@ -887,64 +887,64 @@
     <t>大鱼</t>
   </si>
   <si>
-    <t>285900人评价</t>
+    <t>286792人评价</t>
   </si>
   <si>
     <t>抱着梦想而活着的人是幸福的，怀抱梦想而死去的人是不朽的。</t>
   </si>
   <si>
+    <t>穿条纹睡衣的男孩</t>
+  </si>
+  <si>
+    <t>179057人评价</t>
+  </si>
+  <si>
+    <t>尽管有些不切实际的幻想，这部电影依旧是一部感人肺腑的佳作。</t>
+  </si>
+  <si>
+    <t>加勒比海盗</t>
+  </si>
+  <si>
+    <t>399766人评价</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>约翰尼·德普的独角戏。</t>
+  </si>
+  <si>
+    <t>射雕英雄传之东成西就</t>
+  </si>
+  <si>
+    <t>312823人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百看不厌。 </t>
+  </si>
+  <si>
+    <t>告白</t>
+  </si>
+  <si>
+    <t>388004人评价</t>
+  </si>
+  <si>
+    <t>没有一人完全善，也没有一人完全恶。</t>
+  </si>
+  <si>
     <t>甜蜜蜜</t>
   </si>
   <si>
-    <t>259100人评价</t>
+    <t>259534人评价</t>
   </si>
   <si>
     <t>相逢只要一瞬间，等待却像是一辈子。</t>
   </si>
   <si>
-    <t>穿条纹睡衣的男孩</t>
-  </si>
-  <si>
-    <t>178215人评价</t>
-  </si>
-  <si>
-    <t>尽管有些不切实际的幻想，这部电影依旧是一部感人肺腑的佳作。</t>
-  </si>
-  <si>
-    <t>射雕英雄传之东成西就</t>
-  </si>
-  <si>
-    <t>312076人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百看不厌。 </t>
-  </si>
-  <si>
-    <t>加勒比海盗</t>
-  </si>
-  <si>
-    <t>398180人评价</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>约翰尼·德普的独角戏。</t>
-  </si>
-  <si>
-    <t>告白</t>
-  </si>
-  <si>
-    <t>386845人评价</t>
-  </si>
-  <si>
-    <t>没有一人完全善，也没有一人完全恶。</t>
-  </si>
-  <si>
     <t>一一</t>
   </si>
   <si>
-    <t>175054人评价</t>
+    <t>175397人评价</t>
   </si>
   <si>
     <t>我们都曾经是一一。</t>
@@ -953,34 +953,34 @@
     <t>阳光姐妹淘</t>
   </si>
   <si>
-    <t>305300人评价</t>
+    <t>306172人评价</t>
   </si>
   <si>
     <t xml:space="preserve">再多各自牛逼的时光，也比不上一起傻逼的岁月。 </t>
   </si>
   <si>
+    <t>摩登时代</t>
+  </si>
+  <si>
+    <t>106147人评价</t>
+  </si>
+  <si>
+    <t>大时代中的人生，小人物的悲喜。</t>
+  </si>
+  <si>
     <t>阿凡达</t>
   </si>
   <si>
-    <t>599967人评价</t>
+    <t>602004人评价</t>
   </si>
   <si>
     <t>绝对意义上的美轮美奂。</t>
   </si>
   <si>
-    <t>摩登时代</t>
-  </si>
-  <si>
-    <t>105584人评价</t>
-  </si>
-  <si>
-    <t>大时代中的人生，小人物的悲喜。</t>
-  </si>
-  <si>
     <t>上帝之城</t>
   </si>
   <si>
-    <t>173184人评价</t>
+    <t>173469人评价</t>
   </si>
   <si>
     <t>被上帝抛弃了的上帝之城。</t>
@@ -989,7 +989,7 @@
     <t>爱在黎明破晓前</t>
   </si>
   <si>
-    <t>252396人评价</t>
+    <t>253297人评价</t>
   </si>
   <si>
     <t>缘分是个连绵词，最美不过一瞬。</t>
@@ -998,7 +998,7 @@
     <t>消失的爱人</t>
   </si>
   <si>
-    <t>410212人评价</t>
+    <t>411665人评价</t>
   </si>
   <si>
     <t>年度最佳date movie。</t>
@@ -1007,7 +1007,7 @@
     <t>风之谷</t>
   </si>
   <si>
-    <t>198954人评价</t>
+    <t>199466人评价</t>
   </si>
   <si>
     <t>动画片的圣经。</t>
@@ -1016,7 +1016,7 @@
     <t>侧耳倾听</t>
   </si>
   <si>
-    <t>195337人评价</t>
+    <t>196490人评价</t>
   </si>
   <si>
     <t>少女情怀总是诗。</t>
@@ -1025,7 +1025,7 @@
     <t>爱在日落黄昏时</t>
   </si>
   <si>
-    <t>224089人评价</t>
+    <t>224698人评价</t>
   </si>
   <si>
     <t>九年后的重逢是世俗和责任的交叠，没了悸动和青涩，沧桑而温暖。</t>
@@ -1034,7 +1034,7 @@
     <t>超脱</t>
   </si>
   <si>
-    <t>200064人评价</t>
+    <t>200713人评价</t>
   </si>
   <si>
     <t>穷尽一生，我们要学会的，不过是彼此拥抱。</t>
@@ -1043,7 +1043,7 @@
     <t>倩女幽魂</t>
   </si>
   <si>
-    <t>296968人评价</t>
+    <t>298102人评价</t>
   </si>
   <si>
     <t xml:space="preserve">两张绝世的脸。 </t>
@@ -1052,7 +1052,7 @@
     <t>恐怖直播</t>
   </si>
   <si>
-    <t>261451人评价</t>
+    <t>262410人评价</t>
   </si>
   <si>
     <t>恐怖分子的“秋菊打官司”。</t>
@@ -1061,7 +1061,7 @@
     <t>红辣椒</t>
   </si>
   <si>
-    <t>156981人评价</t>
+    <t>157517人评价</t>
   </si>
   <si>
     <t>梦的勾结。</t>
@@ -1070,7 +1070,7 @@
     <t>小森林 夏秋篇</t>
   </si>
   <si>
-    <t>160116人评价</t>
+    <t>160805人评价</t>
   </si>
   <si>
     <t>那些静得只能听见呼吸的日子里，你明白孤独即生活。</t>
@@ -1079,7 +1079,7 @@
     <t>喜剧之王</t>
   </si>
   <si>
-    <t>368277人评价</t>
+    <t>369649人评价</t>
   </si>
   <si>
     <t>我是一个演员。</t>
@@ -1088,7 +1088,7 @@
     <t>菊次郎的夏天</t>
   </si>
   <si>
-    <t>213172人评价</t>
+    <t>213977人评价</t>
   </si>
   <si>
     <t>从没见过那么流氓的温柔，从没见过那么温柔的流氓。</t>
@@ -1097,7 +1097,7 @@
     <t>驯龙高手</t>
   </si>
   <si>
-    <t>325462人评价</t>
+    <t>326693人评价</t>
   </si>
   <si>
     <t>和谐的生活离不开摸头与被摸头。</t>
@@ -1106,7 +1106,7 @@
     <t>幸福终点站</t>
   </si>
   <si>
-    <t>251950人评价</t>
+    <t>252589人评价</t>
   </si>
   <si>
     <t xml:space="preserve">有时候幸福需要等一等。 </t>
@@ -1115,7 +1115,7 @@
     <t>萤火虫之墓</t>
   </si>
   <si>
-    <t>227460人评价</t>
+    <t>227956人评价</t>
   </si>
   <si>
     <t xml:space="preserve">幸福是生生不息，却难以触及的远。 </t>
@@ -1124,7 +1124,7 @@
     <t>借东西的小人阿莉埃蒂</t>
   </si>
   <si>
-    <t>245038人评价</t>
+    <t>245709人评价</t>
   </si>
   <si>
     <t>曾经的那段美好会沉淀为一辈子的记忆。</t>
@@ -1133,7 +1133,7 @@
     <t>神偷奶爸</t>
   </si>
   <si>
-    <t>435458人评价</t>
+    <t>437251人评价</t>
   </si>
   <si>
     <t>8.5</t>
@@ -1145,7 +1145,7 @@
     <t>岁月神偷</t>
   </si>
   <si>
-    <t>336475人评价</t>
+    <t>337054人评价</t>
   </si>
   <si>
     <t>岁月流逝，来日可追。</t>
@@ -1154,7 +1154,7 @@
     <t>七武士</t>
   </si>
   <si>
-    <t>87404人评价</t>
+    <t>87709人评价</t>
   </si>
   <si>
     <t>时代悲歌。</t>
@@ -1163,61 +1163,61 @@
     <t>杀人回忆</t>
   </si>
   <si>
-    <t>234233人评价</t>
+    <t>234823人评价</t>
   </si>
   <si>
     <t>关于连环杀人悬案的集体回忆。</t>
   </si>
   <si>
+    <t>怪兽电力公司</t>
+  </si>
+  <si>
+    <t>278004人评价</t>
+  </si>
+  <si>
+    <t>不要给它起名字，起了名字就有感情了。</t>
+  </si>
+  <si>
+    <t>电锯惊魂</t>
+  </si>
+  <si>
+    <t>221575人评价</t>
+  </si>
+  <si>
+    <t>真相就在眼前。</t>
+  </si>
+  <si>
+    <t>贫民窟的百万富翁</t>
+  </si>
+  <si>
+    <t>431177人评价</t>
+  </si>
+  <si>
+    <t>上帝之城+猜火车+阿甘正传+开心辞典=山寨富翁</t>
+  </si>
+  <si>
+    <t>谍影重重3</t>
+  </si>
+  <si>
+    <t>202180人评价</t>
+  </si>
+  <si>
+    <t>像吃了苏打饼一样干脆的电影。</t>
+  </si>
+  <si>
     <t>喜宴</t>
   </si>
   <si>
-    <t>157857人评价</t>
+    <t>158208人评价</t>
   </si>
   <si>
     <t>中国家庭的喜怒哀乐忍。</t>
   </si>
   <si>
-    <t>贫民窟的百万富翁</t>
-  </si>
-  <si>
-    <t>430429人评价</t>
-  </si>
-  <si>
-    <t>上帝之城+猜火车+阿甘正传+开心辞典=山寨富翁</t>
-  </si>
-  <si>
-    <t>电锯惊魂</t>
-  </si>
-  <si>
-    <t>220920人评价</t>
-  </si>
-  <si>
-    <t>真相就在眼前。</t>
-  </si>
-  <si>
-    <t>怪兽电力公司</t>
-  </si>
-  <si>
-    <t>276763人评价</t>
-  </si>
-  <si>
-    <t>不要给它起名字，起了名字就有感情了。</t>
-  </si>
-  <si>
-    <t>谍影重重3</t>
-  </si>
-  <si>
-    <t>201442人评价</t>
-  </si>
-  <si>
-    <t>像吃了苏打饼一样干脆的电影。</t>
-  </si>
-  <si>
     <t>真爱至上</t>
   </si>
   <si>
-    <t>346460人评价</t>
+    <t>347213人评价</t>
   </si>
   <si>
     <t>爱，是个动词。</t>
@@ -1226,7 +1226,7 @@
     <t>东邪西毒</t>
   </si>
   <si>
-    <t>283457人评价</t>
+    <t>284439人评价</t>
   </si>
   <si>
     <t>电影诗。</t>
@@ -1235,7 +1235,7 @@
     <t>记忆碎片</t>
   </si>
   <si>
-    <t>310121人评价</t>
+    <t>311089人评价</t>
   </si>
   <si>
     <t>一个针管引发的血案。</t>
@@ -1244,34 +1244,34 @@
     <t>黑天鹅</t>
   </si>
   <si>
-    <t>461254人评价</t>
+    <t>462371人评价</t>
   </si>
   <si>
     <t>黑暗之美。</t>
   </si>
   <si>
+    <t>疯狂原始人</t>
+  </si>
+  <si>
+    <t>414014人评价</t>
+  </si>
+  <si>
+    <t>老少皆宜，这就是好莱坞动画的魅力。</t>
+  </si>
+  <si>
     <t>海洋</t>
   </si>
   <si>
-    <t>105317人评价</t>
+    <t>105408人评价</t>
   </si>
   <si>
     <t>大海啊，不全是水。</t>
   </si>
   <si>
-    <t>疯狂原始人</t>
-  </si>
-  <si>
-    <t>412798人评价</t>
-  </si>
-  <si>
-    <t>老少皆宜，这就是好莱坞动画的魅力。</t>
-  </si>
-  <si>
     <t>雨人</t>
   </si>
   <si>
-    <t>228162人评价</t>
+    <t>228569人评价</t>
   </si>
   <si>
     <t>生活在自己的世界里，也可以让周围的人显得可笑和渺小。</t>
@@ -1280,7 +1280,7 @@
     <t>小森林 冬春篇</t>
   </si>
   <si>
-    <t>138460人评价</t>
+    <t>139057人评价</t>
   </si>
   <si>
     <t>尊敬他人，尊敬你生活的这片土地，明白孤独是人生的常态。</t>
@@ -1289,7 +1289,7 @@
     <t>卢旺达饭店</t>
   </si>
   <si>
-    <t>135073人评价</t>
+    <t>135580人评价</t>
   </si>
   <si>
     <t>当这个世界闭上双眼，他却敞开了怀抱。</t>
@@ -1298,34 +1298,34 @@
     <t>哈利·波特与死亡圣器(下)</t>
   </si>
   <si>
-    <t>308978人评价</t>
+    <t>310287人评价</t>
   </si>
   <si>
     <t>10年的完美句点。</t>
   </si>
   <si>
+    <t>7号房的礼物</t>
+  </si>
+  <si>
+    <t>203858人评价</t>
+  </si>
+  <si>
+    <t>《我是山姆》的《美丽人生》。</t>
+  </si>
+  <si>
     <t>英雄本色</t>
   </si>
   <si>
-    <t>195310人评价</t>
+    <t>196247人评价</t>
   </si>
   <si>
     <t xml:space="preserve">英雄泪短，兄弟情长。 </t>
   </si>
   <si>
-    <t>7号房的礼物</t>
-  </si>
-  <si>
-    <t>203096人评价</t>
-  </si>
-  <si>
-    <t>《我是山姆》的《美丽人生》。</t>
-  </si>
-  <si>
     <t>萤火之森</t>
   </si>
   <si>
-    <t>184520人评价</t>
+    <t>185769人评价</t>
   </si>
   <si>
     <t>触不到的恋人。</t>
@@ -1334,16 +1334,25 @@
     <t>请以你的名字呼唤我</t>
   </si>
   <si>
-    <t>209311人评价</t>
+    <t>210812人评价</t>
   </si>
   <si>
     <t>沉醉在电影的情感和视听氛围中无法自拔。</t>
   </si>
   <si>
+    <t>心迷宫</t>
+  </si>
+  <si>
+    <t>208286人评价</t>
+  </si>
+  <si>
+    <t>荒诞讽刺，千奇百巧，抽丝剥茧，百转千回。</t>
+  </si>
+  <si>
     <t>虎口脱险</t>
   </si>
   <si>
-    <t>117197人评价</t>
+    <t>117471人评价</t>
   </si>
   <si>
     <t>永远看不腻的喜剧。</t>
@@ -1352,43 +1361,43 @@
     <t>燃情岁月</t>
   </si>
   <si>
-    <t>160080人评价</t>
+    <t>160411人评价</t>
   </si>
   <si>
     <t>传奇，不是每个人都可以拥有。</t>
   </si>
   <si>
-    <t>心迷宫</t>
-  </si>
-  <si>
-    <t>207320人评价</t>
-  </si>
-  <si>
-    <t>荒诞讽刺，千奇百巧，抽丝剥茧，百转千回。</t>
+    <t>傲慢与偏见</t>
+  </si>
+  <si>
+    <t>341181人评价</t>
+  </si>
+  <si>
+    <t>爱是摈弃傲慢与偏见之后的曙光。</t>
   </si>
   <si>
     <t>荒蛮故事</t>
   </si>
   <si>
-    <t>165762人评价</t>
+    <t>166411人评价</t>
   </si>
   <si>
     <t>始于荒诞，止于更荒诞。</t>
   </si>
   <si>
-    <t>傲慢与偏见</t>
-  </si>
-  <si>
-    <t>340177人评价</t>
-  </si>
-  <si>
-    <t>爱是摈弃傲慢与偏见之后的曙光。</t>
+    <t>超能陆战队</t>
+  </si>
+  <si>
+    <t>424438人评价</t>
+  </si>
+  <si>
+    <t>Balalala~~~</t>
   </si>
   <si>
     <t>海边的曼彻斯特</t>
   </si>
   <si>
-    <t>228154人评价</t>
+    <t>229112人评价</t>
   </si>
   <si>
     <t>我们都有权利不与自己的过去和解。</t>
@@ -1397,25 +1406,16 @@
     <t>教父3</t>
   </si>
   <si>
-    <t>148121人评价</t>
+    <t>148659人评价</t>
   </si>
   <si>
     <t>任何信念的力量，都无法改变命运。</t>
   </si>
   <si>
-    <t>超能陆战队</t>
-  </si>
-  <si>
-    <t>422823人评价</t>
-  </si>
-  <si>
-    <t>Balalala~~~</t>
-  </si>
-  <si>
     <t>唐伯虎点秋香</t>
   </si>
   <si>
-    <t>384537人评价</t>
+    <t>386407人评价</t>
   </si>
   <si>
     <t>8.4</t>
@@ -1424,73 +1424,73 @@
     <t>华太师是黄霑，吴镇宇四大才子之一。</t>
   </si>
   <si>
+    <t>蝙蝠侠：黑暗骑士崛起</t>
+  </si>
+  <si>
+    <t>329302人评价</t>
+  </si>
+  <si>
+    <t>诺兰就是保证。</t>
+  </si>
+  <si>
+    <t>恋恋笔记本</t>
+  </si>
+  <si>
+    <t>317982人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">爱情没有那么多借口，如果不能圆满，只能说明爱的不够。 </t>
+  </si>
+  <si>
     <t>纵横四海</t>
   </si>
   <si>
-    <t>168131人评价</t>
+    <t>168732人评价</t>
   </si>
   <si>
     <t>香港浪漫主义警匪动作片的巅峰之作。</t>
   </si>
   <si>
-    <t>恋恋笔记本</t>
-  </si>
-  <si>
-    <t>317097人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">爱情没有那么多借口，如果不能圆满，只能说明爱的不够。 </t>
-  </si>
-  <si>
     <t>完美的世界</t>
   </si>
   <si>
-    <t>92289人评价</t>
+    <t>92596人评价</t>
   </si>
   <si>
     <t>坏人的好总是比好人的好来得更感人。</t>
   </si>
   <si>
+    <t>花样年华</t>
+  </si>
+  <si>
+    <t>275359人评价</t>
+  </si>
+  <si>
+    <t>偷情本没有这样美。</t>
+  </si>
+  <si>
+    <t>时空恋旅人</t>
+  </si>
+  <si>
+    <t>232331人评价</t>
+  </si>
+  <si>
+    <t>把每天当作最后一天般珍惜度过，积极拥抱生活，就是幸福。</t>
+  </si>
+  <si>
     <t>玩具总动员3</t>
   </si>
   <si>
-    <t>212911人评价</t>
+    <t>213604人评价</t>
   </si>
   <si>
     <t>跨度十五年的欢乐与泪水。</t>
   </si>
   <si>
-    <t>蝙蝠侠：黑暗骑士崛起</t>
-  </si>
-  <si>
-    <t>328153人评价</t>
-  </si>
-  <si>
-    <t>诺兰就是保证。</t>
-  </si>
-  <si>
-    <t>花样年华</t>
-  </si>
-  <si>
-    <t>274700人评价</t>
-  </si>
-  <si>
-    <t>偷情本没有这样美。</t>
-  </si>
-  <si>
-    <t>时空恋旅人</t>
-  </si>
-  <si>
-    <t>231394人评价</t>
-  </si>
-  <si>
-    <t>把每天当作最后一天般珍惜度过，积极拥抱生活，就是幸福。</t>
-  </si>
-  <si>
     <t>魂断蓝桥</t>
   </si>
   <si>
-    <t>141180人评价</t>
+    <t>141473人评价</t>
   </si>
   <si>
     <t>中国式内在的美国电影。</t>
@@ -1499,7 +1499,7 @@
     <t>猜火车</t>
   </si>
   <si>
-    <t>268901人评价</t>
+    <t>269419人评价</t>
   </si>
   <si>
     <t xml:space="preserve">不可猜的青春迷笛。 </t>
@@ -1508,34 +1508,34 @@
     <t>穿越时空的少女</t>
   </si>
   <si>
-    <t>203612人评价</t>
+    <t>204058人评价</t>
   </si>
   <si>
     <t xml:space="preserve">爱上未来的你。 </t>
   </si>
   <si>
+    <t>达拉斯买家俱乐部</t>
+  </si>
+  <si>
+    <t>207931人评价</t>
+  </si>
+  <si>
+    <t>Jared Leto的腿比女人还美！</t>
+  </si>
+  <si>
     <t>雨中曲</t>
   </si>
   <si>
-    <t>101792人评价</t>
+    <t>102118人评价</t>
   </si>
   <si>
     <t>骨灰级歌舞片。</t>
   </si>
   <si>
-    <t>达拉斯买家俱乐部</t>
-  </si>
-  <si>
-    <t>207078人评价</t>
-  </si>
-  <si>
-    <t>Jared Leto的腿比女人还美！</t>
-  </si>
-  <si>
     <t>二十二</t>
   </si>
   <si>
-    <t>120377人评价</t>
+    <t>121015人评价</t>
   </si>
   <si>
     <t>有一些东西不应该被遗忘。</t>
@@ -1544,16 +1544,25 @@
     <t>我是山姆</t>
   </si>
   <si>
-    <t>117466人评价</t>
+    <t>117800人评价</t>
   </si>
   <si>
     <t>爱并不需要智商 。</t>
   </si>
   <si>
+    <t>无人知晓</t>
+  </si>
+  <si>
+    <t>81272人评价</t>
+  </si>
+  <si>
+    <t>我的平常生活就是他人的幸福。</t>
+  </si>
+  <si>
     <t>人工智能</t>
   </si>
   <si>
-    <t>210537人评价</t>
+    <t>211074人评价</t>
   </si>
   <si>
     <t>对爱的执着，可以超越一切。</t>
@@ -1562,70 +1571,61 @@
     <t>冰川时代</t>
   </si>
   <si>
-    <t>303184人评价</t>
+    <t>304129人评价</t>
   </si>
   <si>
     <t>松鼠才是角儿。</t>
   </si>
   <si>
-    <t>无人知晓</t>
-  </si>
-  <si>
-    <t>80328人评价</t>
-  </si>
-  <si>
-    <t>我的平常生活就是他人的幸福。</t>
+    <t>血战钢锯岭</t>
+  </si>
+  <si>
+    <t>363487人评价</t>
+  </si>
+  <si>
+    <t>优秀的战争片不会美化战场，不会粉饰死亡，不会矮化敌人，不会无视常识，最重要的，不会宣扬战争。</t>
   </si>
   <si>
     <t>浪潮</t>
   </si>
   <si>
-    <t>146143人评价</t>
+    <t>146485人评价</t>
   </si>
   <si>
     <t>世界离独裁只有五天。</t>
   </si>
   <si>
-    <t>血战钢锯岭</t>
-  </si>
-  <si>
-    <t>361944人评价</t>
-  </si>
-  <si>
-    <t>优秀的战争片不会美化战场，不会粉饰死亡，不会矮化敌人，不会无视常识，最重要的，不会宣扬战争。</t>
-  </si>
-  <si>
     <t>爆裂鼓手</t>
   </si>
   <si>
-    <t>264913人评价</t>
+    <t>265610人评价</t>
   </si>
   <si>
     <t>这个世界从不善待努力的人，努力了也不一定会成功，但是知道自己在努力，就是活下去的动力。</t>
   </si>
   <si>
+    <t>香水</t>
+  </si>
+  <si>
+    <t>304188人评价</t>
+  </si>
+  <si>
+    <t>一个单凭体香达到高潮的男人。</t>
+  </si>
+  <si>
     <t>朗读者</t>
   </si>
   <si>
-    <t>297962人评价</t>
+    <t>298341人评价</t>
   </si>
   <si>
     <t xml:space="preserve">当爱情跨越年龄的界限，它似乎能变得更久远一点，成为一种责任，一种水到渠成的相濡以沫。 </t>
   </si>
   <si>
-    <t>香水</t>
-  </si>
-  <si>
-    <t>303421人评价</t>
-  </si>
-  <si>
-    <t>一个单凭体香达到高潮的男人。</t>
-  </si>
-  <si>
     <t>罗生门</t>
   </si>
   <si>
-    <t>140403人评价</t>
+    <t>140857人评价</t>
   </si>
   <si>
     <t>人生的N种可能性。</t>
@@ -1634,7 +1634,7 @@
     <t>未麻的部屋</t>
   </si>
   <si>
-    <t>112129人评价</t>
+    <t>112566人评价</t>
   </si>
   <si>
     <t>好的剧本是，就算你猜到了结局也猜不到全部。</t>
@@ -1643,7 +1643,7 @@
     <t>阿飞正传</t>
   </si>
   <si>
-    <t>231737人评价</t>
+    <t>232323人评价</t>
   </si>
   <si>
     <t>王家卫是一种风格，张国荣是一个代表。</t>
@@ -1652,52 +1652,52 @@
     <t>被解救的姜戈</t>
   </si>
   <si>
-    <t>285450人评价</t>
+    <t>286351人评价</t>
   </si>
   <si>
     <t>热血沸腾，那个低俗、性感的无耻混蛋又来了。</t>
   </si>
   <si>
+    <t>头脑特工队</t>
+  </si>
+  <si>
+    <t>260521人评价</t>
+  </si>
+  <si>
+    <t>愿我们都不用长大，每一座城堡都能永远存在。</t>
+  </si>
+  <si>
     <t>可可西里</t>
   </si>
   <si>
-    <t>142328人评价</t>
+    <t>142674人评价</t>
   </si>
   <si>
     <t>坚硬的信仰。</t>
   </si>
   <si>
+    <t>恐怖游轮</t>
+  </si>
+  <si>
+    <t>365914人评价</t>
+  </si>
+  <si>
+    <t>不要企图在重复中寻找已经失去的爱。</t>
+  </si>
+  <si>
     <t>一次别离</t>
   </si>
   <si>
-    <t>144632人评价</t>
+    <t>144954人评价</t>
   </si>
   <si>
     <t>只有有信仰的人才能说出事实真相。</t>
   </si>
   <si>
-    <t>头脑特工队</t>
-  </si>
-  <si>
-    <t>259340人评价</t>
-  </si>
-  <si>
-    <t>愿我们都不用长大，每一座城堡都能永远存在。</t>
-  </si>
-  <si>
-    <t>恐怖游轮</t>
-  </si>
-  <si>
-    <t>364883人评价</t>
-  </si>
-  <si>
-    <t>不要企图在重复中寻找已经失去的爱。</t>
-  </si>
-  <si>
     <t>追随</t>
   </si>
   <si>
-    <t>89940人评价</t>
+    <t>90151人评价</t>
   </si>
   <si>
     <t>诺兰的牛逼来源于内心散发出的恐惧。</t>
@@ -1706,7 +1706,7 @@
     <t>撞车</t>
   </si>
   <si>
-    <t>188261人评价</t>
+    <t>188652人评价</t>
   </si>
   <si>
     <t>天使与魔鬼的冲撞。</t>
@@ -1715,7 +1715,7 @@
     <t>战争之王</t>
   </si>
   <si>
-    <t>189517人评价</t>
+    <t>189845人评价</t>
   </si>
   <si>
     <t>做一颗让别人需要你的棋子。</t>
@@ -1724,7 +1724,7 @@
     <t>房间</t>
   </si>
   <si>
-    <t>177724人评价</t>
+    <t>178341人评价</t>
   </si>
   <si>
     <t>被偷走的岁月，被伤害的生命，被禁锢的灵魂，终将被希望和善意救赎。</t>
@@ -1733,79 +1733,79 @@
     <t>地球上的星星</t>
   </si>
   <si>
-    <t>95102人评价</t>
+    <t>95361人评价</t>
   </si>
   <si>
     <t>天使保护事件始末。</t>
   </si>
   <si>
+    <t>你的名字。</t>
+  </si>
+  <si>
+    <t>549731人评价</t>
+  </si>
+  <si>
+    <t>穿越错位的时空，仰望陨落的星辰，你没留下你的名字，我却无法忘记那句“我爱你”。</t>
+  </si>
+  <si>
+    <t>魔女宅急便</t>
+  </si>
+  <si>
+    <t>217662人评价</t>
+  </si>
+  <si>
+    <t>宫崎骏的电影总让人感觉世界是美好的，阳光明媚的。</t>
+  </si>
+  <si>
     <t>梦之安魂曲</t>
   </si>
   <si>
-    <t>122149人评价</t>
+    <t>122409人评价</t>
   </si>
   <si>
     <t>一场没有春天的噩梦。</t>
   </si>
   <si>
+    <t>模仿游戏</t>
+  </si>
+  <si>
+    <t>285392人评价</t>
+  </si>
+  <si>
+    <t>他给机器起名“克里斯托弗”，因为这是他初恋的名字。</t>
+  </si>
+  <si>
+    <t>谍影重重</t>
+  </si>
+  <si>
+    <t>211802人评价</t>
+  </si>
+  <si>
+    <t>哗啦啦啦啦，天在下雨，哗啦啦啦啦，云在哭泣……找自己。</t>
+  </si>
+  <si>
     <t>牯岭街少年杀人事件</t>
   </si>
   <si>
-    <t>118867人评价</t>
+    <t>119167人评价</t>
   </si>
   <si>
     <t>弱者送给弱者的一刀。</t>
   </si>
   <si>
-    <t>魔女宅急便</t>
-  </si>
-  <si>
-    <t>216966人评价</t>
-  </si>
-  <si>
-    <t>宫崎骏的电影总让人感觉世界是美好的，阳光明媚的。</t>
-  </si>
-  <si>
-    <t>你的名字。</t>
-  </si>
-  <si>
-    <t>546776人评价</t>
-  </si>
-  <si>
-    <t>穿越错位的时空，仰望陨落的星辰，你没留下你的名字，我却无法忘记那句“我爱你”。</t>
-  </si>
-  <si>
-    <t>谍影重重</t>
-  </si>
-  <si>
-    <t>211118人评价</t>
-  </si>
-  <si>
-    <t>哗啦啦啦啦，天在下雨，哗啦啦啦啦，云在哭泣……找自己。</t>
-  </si>
-  <si>
     <t>忠犬八公物语</t>
   </si>
   <si>
-    <t>68998人评价</t>
+    <t>69317人评价</t>
   </si>
   <si>
     <t>养狗三日，便会对你终其一生。</t>
   </si>
   <si>
-    <t>模仿游戏</t>
-  </si>
-  <si>
-    <t>284520人评价</t>
-  </si>
-  <si>
-    <t>他给机器起名“克里斯托弗”，因为这是他初恋的名字。</t>
-  </si>
-  <si>
     <t>谍影重重2</t>
   </si>
   <si>
-    <t>175346人评价</t>
+    <t>175956人评价</t>
   </si>
   <si>
     <t>谁说王家卫镜头很晃？</t>
@@ -1814,43 +1814,43 @@
     <t>一个叫欧维的男人决定去死</t>
   </si>
   <si>
-    <t>140359人评价</t>
+    <t>141115人评价</t>
   </si>
   <si>
     <t>惠及一生的美丽。</t>
   </si>
   <si>
+    <t>惊魂记</t>
+  </si>
+  <si>
+    <t>93794人评价</t>
+  </si>
+  <si>
+    <t>故事的反转与反转，分裂电影的始祖。</t>
+  </si>
+  <si>
+    <t>完美陌生人</t>
+  </si>
+  <si>
+    <t>231703人评价</t>
+  </si>
+  <si>
+    <t>来啊，互相伤害啊！</t>
+  </si>
+  <si>
     <t>青蛇</t>
   </si>
   <si>
-    <t>246056人评价</t>
+    <t>246882人评价</t>
   </si>
   <si>
     <t>人生如此，浮生如斯。谁人言，花彼岸，此生情长意短。谁都是不懂爱的罢了。</t>
   </si>
   <si>
-    <t>惊魂记</t>
-  </si>
-  <si>
-    <t>93292人评价</t>
-  </si>
-  <si>
-    <t>故事的反转与反转，分裂电影的始祖。</t>
-  </si>
-  <si>
-    <t>完美陌生人</t>
-  </si>
-  <si>
-    <t>230557人评价</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
     <t>哪吒闹海</t>
   </si>
   <si>
-    <t>91117人评价</t>
+    <t>91503人评价</t>
   </si>
   <si>
     <t>想你时你在闹海。</t>
@@ -1859,7 +1859,7 @@
     <t>再次出发之纽约遇见你</t>
   </si>
   <si>
-    <t>192269人评价</t>
+    <t>192933人评价</t>
   </si>
   <si>
     <t>爱我就给我看你的播放列表。</t>
@@ -1868,184 +1868,190 @@
     <t>小萝莉的猴神大叔</t>
   </si>
   <si>
-    <t>185891人评价</t>
+    <t>187005人评价</t>
+  </si>
+  <si>
+    <t>宝莱坞的萝莉与大叔。</t>
+  </si>
+  <si>
+    <t>黑客帝国3：矩阵革命</t>
+  </si>
+  <si>
+    <t>174096人评价</t>
+  </si>
+  <si>
+    <t>不得不说，《黑客帝国》系列是商业片与科幻、哲学完美结合的典范。</t>
   </si>
   <si>
     <t>东京物语</t>
   </si>
   <si>
-    <t>57233人评价</t>
+    <t>57451人评价</t>
   </si>
   <si>
     <t>东京那么大，如果有一天走失了，恐怕一辈子不能再相见。</t>
   </si>
   <si>
-    <t>黑客帝国3：矩阵革命</t>
-  </si>
-  <si>
-    <t>173435人评价</t>
-  </si>
-  <si>
-    <t>不得不说，《黑客帝国》系列是商业片与科幻、哲学完美结合的典范。</t>
-  </si>
-  <si>
     <t>源代码</t>
   </si>
   <si>
-    <t>442542人评价</t>
+    <t>443257人评价</t>
+  </si>
+  <si>
+    <t>邓肯·琼斯继《月球》之后再度奉献出一部精彩绝伦的科幻佳作。</t>
+  </si>
+  <si>
+    <t>新龙门客栈</t>
+  </si>
+  <si>
+    <t>205136人评价</t>
+  </si>
+  <si>
+    <t>嬉笑怒骂，调风动月。</t>
+  </si>
+  <si>
+    <t>终结者2：审判日</t>
+  </si>
+  <si>
+    <t>154967人评价</t>
+  </si>
+  <si>
+    <t>少见的超越首部的续集，动作片中的经典。</t>
+  </si>
+  <si>
+    <t>末路狂花</t>
+  </si>
+  <si>
+    <t>115419人评价</t>
+  </si>
+  <si>
+    <t>没有了退路，只好飞向自由。</t>
+  </si>
+  <si>
+    <t>秒速5厘米</t>
+  </si>
+  <si>
+    <t>333666人评价</t>
   </si>
   <si>
     <t>8.3</t>
   </si>
   <si>
-    <t>邓肯·琼斯继《月球》之后再度奉献出一部精彩绝伦的科幻佳作。</t>
-  </si>
-  <si>
-    <t>新龙门客栈</t>
-  </si>
-  <si>
-    <t>204474人评价</t>
-  </si>
-  <si>
-    <t>嬉笑怒骂，调风动月。</t>
-  </si>
-  <si>
-    <t>终结者2：审判日</t>
-  </si>
-  <si>
-    <t>154541人评价</t>
-  </si>
-  <si>
-    <t>少见的超越首部的续集，动作片中的经典。</t>
-  </si>
-  <si>
-    <t>末路狂花</t>
-  </si>
-  <si>
-    <t>115151人评价</t>
-  </si>
-  <si>
-    <t>没有了退路，只好飞向自由。</t>
-  </si>
-  <si>
-    <t>秒速5厘米</t>
-  </si>
-  <si>
-    <t>332627人评价</t>
-  </si>
-  <si>
     <t>青春就是放弃和怀念。</t>
   </si>
   <si>
+    <t>绿里奇迹</t>
+  </si>
+  <si>
+    <t>117583人评价</t>
+  </si>
+  <si>
+    <t>天使暂时离开。</t>
+  </si>
+  <si>
     <t>碧海蓝天</t>
   </si>
   <si>
-    <t>113077人评价</t>
+    <t>113197人评价</t>
   </si>
   <si>
     <t>在那片深蓝中，感受来自大海的忧伤寂寞与美丽自由。</t>
   </si>
   <si>
-    <t>绿里奇迹</t>
-  </si>
-  <si>
-    <t>117190人评价</t>
-  </si>
-  <si>
-    <t>天使暂时离开。</t>
-  </si>
-  <si>
     <t>步履不停</t>
   </si>
   <si>
-    <t>94838人评价</t>
+    <t>95670人评价</t>
   </si>
   <si>
     <t>日本的家庭电影已经是世界巅峰了，步履不停是巅峰中的佳作。</t>
   </si>
   <si>
+    <t>勇闯夺命岛</t>
+  </si>
+  <si>
+    <t>153704人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">类型片的极致。 </t>
+  </si>
+  <si>
+    <t>城市之光</t>
+  </si>
+  <si>
+    <t>49995人评价</t>
+  </si>
+  <si>
+    <t>永远的小人物，伟大的卓别林。</t>
+  </si>
+  <si>
     <t>这个男人来自地球</t>
   </si>
   <si>
-    <t>200154人评价</t>
+    <t>200566人评价</t>
   </si>
   <si>
     <t xml:space="preserve">科幻真正的魅力不是视觉效果能取代的。 </t>
   </si>
   <si>
-    <t>勇闯夺命岛</t>
-  </si>
-  <si>
-    <t>153307人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">类型片的极致。 </t>
-  </si>
-  <si>
-    <t>城市之光</t>
-  </si>
-  <si>
-    <t>49777人评价</t>
-  </si>
-  <si>
-    <t>永远的小人物，伟大的卓别林。</t>
+    <t>初恋这件小事</t>
+  </si>
+  <si>
+    <t>507228人评价</t>
+  </si>
+  <si>
+    <t>黑小鸭速效美白记。</t>
+  </si>
+  <si>
+    <t>海街日记</t>
+  </si>
+  <si>
+    <t>153089人评价</t>
+  </si>
+  <si>
+    <t>是枝裕和的家庭习作。</t>
+  </si>
+  <si>
+    <t>无耻混蛋</t>
+  </si>
+  <si>
+    <t>243262人评价</t>
+  </si>
+  <si>
+    <t>昆汀同学越来越变态了，比北野武还杜琪峰。</t>
   </si>
   <si>
     <t>海盗电台</t>
   </si>
   <si>
-    <t>175335人评价</t>
+    <t>175632人评价</t>
   </si>
   <si>
     <t>生命不止，摇滚不死。</t>
   </si>
   <si>
-    <t>初恋这件小事</t>
-  </si>
-  <si>
-    <t>505998人评价</t>
-  </si>
-  <si>
-    <t>黑小鸭速效美白记。</t>
-  </si>
-  <si>
-    <t>无耻混蛋</t>
-  </si>
-  <si>
-    <t>242582人评价</t>
-  </si>
-  <si>
-    <t>昆汀同学越来越变态了，比北野武还杜琪峰。</t>
+    <t>无敌破坏王</t>
+  </si>
+  <si>
+    <t>205284人评价</t>
+  </si>
+  <si>
+    <t>迪士尼和皮克斯拿错剧本的产物。</t>
   </si>
   <si>
     <t>卡萨布兰卡</t>
   </si>
   <si>
-    <t>135197人评价</t>
+    <t>135522人评价</t>
   </si>
   <si>
     <t>世界上有那么多女人那么多酒馆，但她偏偏走进我的这家。</t>
   </si>
   <si>
-    <t>海街日记</t>
-  </si>
-  <si>
-    <t>152196人评价</t>
-  </si>
-  <si>
-    <t>无敌破坏王</t>
-  </si>
-  <si>
-    <t>204536人评价</t>
-  </si>
-  <si>
-    <t>迪士尼和皮克斯拿错剧本的产物。</t>
-  </si>
-  <si>
     <t>变脸</t>
   </si>
   <si>
-    <t>231286人评价</t>
+    <t>231794人评价</t>
   </si>
   <si>
     <t>当发哥的风衣、墨镜出现在了凯奇身上⋯⋯</t>
@@ -2054,7 +2060,7 @@
     <t>爱在午夜降临前</t>
   </si>
   <si>
-    <t>129347人评价</t>
+    <t>129745人评价</t>
   </si>
   <si>
     <t>所谓爱情，就是话唠一路，都不会心生腻烦，彼此嫌弃。</t>
@@ -2063,7 +2069,7 @@
     <t>E.T. 外星人</t>
   </si>
   <si>
-    <t>168394人评价</t>
+    <t>168832人评价</t>
   </si>
   <si>
     <t>生病的E.T.皮肤的颜色就像柿子饼。</t>
@@ -2072,7 +2078,7 @@
     <t>疯狂的石头</t>
   </si>
   <si>
-    <t>351022人评价</t>
+    <t>352019人评价</t>
   </si>
   <si>
     <t>中国版《两杆大烟枪》。</t>
@@ -2081,7 +2087,7 @@
     <t>发条橙</t>
   </si>
   <si>
-    <t>200420人评价</t>
+    <t>200835人评价</t>
   </si>
   <si>
     <t>我完全康复了。</t>
@@ -2090,7 +2096,7 @@
     <t>黄金三镖客</t>
   </si>
   <si>
-    <t>56841人评价</t>
+    <t>57044人评价</t>
   </si>
   <si>
     <t>最棒的西部片。</t>
@@ -2099,7 +2105,7 @@
     <t>美国丽人</t>
   </si>
   <si>
-    <t>200255人评价</t>
+    <t>200738人评价</t>
   </si>
   <si>
     <t xml:space="preserve">每个人的内心都是深不可测的大海。 </t>
@@ -2108,76 +2114,79 @@
     <t>荒野生存</t>
   </si>
   <si>
-    <t>137383人评价</t>
+    <t>137669人评价</t>
   </si>
   <si>
     <t>出门必备：本草纲目。</t>
   </si>
   <si>
+    <t>英国病人</t>
+  </si>
+  <si>
+    <t>185624人评价</t>
+  </si>
+  <si>
+    <t>In memory, love lives forever...</t>
+  </si>
+  <si>
+    <t>彗星来的那一夜</t>
+  </si>
+  <si>
+    <t>205038人评价</t>
+  </si>
+  <si>
+    <t>小成本大魅力。</t>
+  </si>
+  <si>
     <t>迁徙的鸟</t>
   </si>
   <si>
-    <t>54747人评价</t>
+    <t>54825人评价</t>
   </si>
   <si>
     <t>最美的飞翔。</t>
   </si>
   <si>
-    <t>英国病人</t>
-  </si>
-  <si>
-    <t>185290人评价</t>
-  </si>
-  <si>
-    <t>In memory, love lives forever...</t>
-  </si>
-  <si>
-    <t>彗星来的那一夜</t>
-  </si>
-  <si>
-    <t>204163人评价</t>
-  </si>
-  <si>
-    <t>小成本大魅力。</t>
+    <t>血钻</t>
+  </si>
+  <si>
+    <t>147570人评价</t>
+  </si>
+  <si>
+    <t>每个美丽事物背后都是滴血的现实。</t>
   </si>
   <si>
     <t>国王的演讲</t>
   </si>
   <si>
-    <t>368301人评价</t>
+    <t>369305人评价</t>
   </si>
   <si>
     <t>皇上无话儿。</t>
   </si>
   <si>
-    <t>血钻</t>
-  </si>
-  <si>
-    <t>147010人评价</t>
-  </si>
-  <si>
-    <t>每个美丽事物背后都是滴血的现实。</t>
+    <t>聚焦</t>
+  </si>
+  <si>
+    <t>141486人评价</t>
+  </si>
+  <si>
+    <t>新闻人的理性求真。</t>
   </si>
   <si>
     <t>非常嫌疑犯</t>
   </si>
   <si>
-    <t>126652人评价</t>
+    <t>127063人评价</t>
   </si>
   <si>
     <t>我不信仰上帝，但我敬畏上帝。</t>
   </si>
   <si>
-    <t>聚焦</t>
-  </si>
-  <si>
-    <t>141078人评价</t>
-  </si>
-  <si>
     <t>燕尾蝶</t>
   </si>
   <si>
-    <t>113213人评价</t>
+    <t>113327人评价</t>
   </si>
   <si>
     <t>现实与童话交相辉映的旅程。</t>
@@ -2186,34 +2195,34 @@
     <t>勇士</t>
   </si>
   <si>
-    <t>93608人评价</t>
+    <t>93829人评价</t>
   </si>
   <si>
     <t>热血沸腾，相当完美的娱乐拳击大餐。</t>
   </si>
   <si>
+    <t>叫我第一名</t>
+  </si>
+  <si>
+    <t>117024人评价</t>
+  </si>
+  <si>
+    <t>乐观比一切都有力量。</t>
+  </si>
+  <si>
     <t>穆赫兰道</t>
   </si>
   <si>
-    <t>253017人评价</t>
+    <t>253534人评价</t>
   </si>
   <si>
     <t>大卫·林奇的梦境迷宫。</t>
   </si>
   <si>
-    <t>叫我第一名</t>
-  </si>
-  <si>
-    <t>116830人评价</t>
-  </si>
-  <si>
-    <t>乐观比一切都有力量。</t>
-  </si>
-  <si>
     <t>遗愿清单</t>
   </si>
   <si>
-    <t>143884人评价</t>
+    <t>144400人评价</t>
   </si>
   <si>
     <t>用剩余不多的时间，去燃烧整个生命。</t>
@@ -2222,52 +2231,52 @@
     <t>黑鹰坠落</t>
   </si>
   <si>
-    <t>128649人评价</t>
+    <t>129133人评价</t>
   </si>
   <si>
     <t>还原真实而残酷的战争。</t>
   </si>
   <si>
+    <t>我爱你</t>
+  </si>
+  <si>
+    <t>64392人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你要相信，这世上真的有爱存在，不管在什么年纪 </t>
+  </si>
+  <si>
     <t>枪火</t>
   </si>
   <si>
-    <t>108618人评价</t>
+    <t>108849人评价</t>
   </si>
   <si>
     <t>一群演技精湛的戏骨，奉献出一个精致的黑帮小品，成就杜琪峰群戏的巅峰之作。</t>
   </si>
   <si>
-    <t>我爱你</t>
-  </si>
-  <si>
-    <t>64182人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">你要相信，这世上真的有爱存在，不管在什么年纪 </t>
+    <t>荒岛余生</t>
+  </si>
+  <si>
+    <t>148342人评价</t>
+  </si>
+  <si>
+    <t>一个人的独角戏。</t>
   </si>
   <si>
     <t>上帝也疯狂</t>
   </si>
   <si>
-    <t>102960人评价</t>
+    <t>103120人评价</t>
   </si>
   <si>
     <t>纯净原始的笑与感动。</t>
   </si>
   <si>
-    <t>荒岛余生</t>
-  </si>
-  <si>
-    <t>147825人评价</t>
-  </si>
-  <si>
-    <t>一个人的独角戏。</t>
-  </si>
-  <si>
     <t>大卫·戈尔的一生</t>
   </si>
   <si>
-    <t>104079人评价</t>
+    <t>104372人评价</t>
   </si>
   <si>
     <t>捍卫人权只是信仰，一点不妨碍其行为的残忍。</t>
@@ -2276,7 +2285,7 @@
     <t>千钧一发</t>
   </si>
   <si>
-    <t>95223人评价</t>
+    <t>95540人评价</t>
   </si>
   <si>
     <t>一部能引人思考的科幻励志片。</t>
@@ -2285,7 +2294,7 @@
     <t>2001太空漫游</t>
   </si>
   <si>
-    <t>103853人评价</t>
+    <t>104390人评价</t>
   </si>
   <si>
     <t>现代科幻电影的开山之作，最伟大导演的最伟大影片。</t>
@@ -2294,7 +2303,7 @@
     <t>蓝色大门</t>
   </si>
   <si>
-    <t>287440人评价</t>
+    <t>287831人评价</t>
   </si>
   <si>
     <t xml:space="preserve">青春的窃窃私语。 </t>
@@ -3013,7 +3022,7 @@
         <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>88</v>
@@ -3097,7 +3106,7 @@
         <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
         <v>106</v>
@@ -3111,7 +3120,7 @@
         <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
         <v>109</v>
@@ -3139,7 +3148,7 @@
         <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>115</v>
@@ -3167,7 +3176,7 @@
         <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
         <v>121</v>
@@ -3307,7 +3316,7 @@
         <v>151</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
         <v>152</v>
@@ -3321,7 +3330,7 @@
         <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
         <v>155</v>
@@ -3503,7 +3512,7 @@
         <v>194</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="D62" t="s">
         <v>195</v>
@@ -3517,7 +3526,7 @@
         <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s">
         <v>198</v>
@@ -3531,7 +3540,7 @@
         <v>200</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="D64" t="s">
         <v>201</v>
@@ -3587,7 +3596,7 @@
         <v>212</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="D68" t="s">
         <v>213</v>
@@ -3601,7 +3610,7 @@
         <v>215</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
         <v>216</v>
@@ -3615,7 +3624,7 @@
         <v>218</v>
       </c>
       <c r="C70" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s">
         <v>219</v>
@@ -3629,7 +3638,7 @@
         <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="D71" t="s">
         <v>222</v>
@@ -3685,7 +3694,7 @@
         <v>233</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="D75" t="s">
         <v>234</v>
@@ -3727,7 +3736,7 @@
         <v>242</v>
       </c>
       <c r="C78" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="D78" t="s">
         <v>243</v>
@@ -3741,7 +3750,7 @@
         <v>245</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="D79" t="s">
         <v>246</v>
@@ -3853,7 +3862,7 @@
         <v>269</v>
       </c>
       <c r="C87" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="D87" t="s">
         <v>270</v>
@@ -3867,7 +3876,7 @@
         <v>272</v>
       </c>
       <c r="C88" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="D88" t="s">
         <v>273</v>
@@ -3965,7 +3974,7 @@
         <v>293</v>
       </c>
       <c r="C95" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="D95" t="s">
         <v>294</v>
@@ -3979,35 +3988,35 @@
         <v>296</v>
       </c>
       <c r="C96" t="s">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="D96" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B97" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C97" t="s">
         <v>191</v>
       </c>
       <c r="D97" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B98" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C98" t="s">
-        <v>303</v>
+        <v>191</v>
       </c>
       <c r="D98" t="s">
         <v>304</v>
@@ -4021,7 +4030,7 @@
         <v>306</v>
       </c>
       <c r="C99" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="D99" t="s">
         <v>307</v>
@@ -4063,7 +4072,7 @@
         <v>315</v>
       </c>
       <c r="C102" t="s">
-        <v>303</v>
+        <v>39</v>
       </c>
       <c r="D102" t="s">
         <v>316</v>
@@ -4077,7 +4086,7 @@
         <v>318</v>
       </c>
       <c r="C103" t="s">
-        <v>39</v>
+        <v>297</v>
       </c>
       <c r="D103" t="s">
         <v>319</v>
@@ -4189,7 +4198,7 @@
         <v>342</v>
       </c>
       <c r="C111" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D111" t="s">
         <v>343</v>
@@ -4245,7 +4254,7 @@
         <v>354</v>
       </c>
       <c r="C115" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D115" t="s">
         <v>355</v>
@@ -4343,7 +4352,7 @@
         <v>376</v>
       </c>
       <c r="C122" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D122" t="s">
         <v>377</v>
@@ -4385,7 +4394,7 @@
         <v>385</v>
       </c>
       <c r="C125" t="s">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="D125" t="s">
         <v>386</v>
@@ -4399,7 +4408,7 @@
         <v>388</v>
       </c>
       <c r="C126" t="s">
-        <v>373</v>
+        <v>191</v>
       </c>
       <c r="D126" t="s">
         <v>389</v>
@@ -4413,7 +4422,7 @@
         <v>391</v>
       </c>
       <c r="C127" t="s">
-        <v>191</v>
+        <v>373</v>
       </c>
       <c r="D127" t="s">
         <v>392</v>
@@ -4427,7 +4436,7 @@
         <v>394</v>
       </c>
       <c r="C128" t="s">
-        <v>303</v>
+        <v>191</v>
       </c>
       <c r="D128" t="s">
         <v>395</v>
@@ -4441,7 +4450,7 @@
         <v>397</v>
       </c>
       <c r="C129" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="D129" t="s">
         <v>398</v>
@@ -4469,7 +4478,7 @@
         <v>403</v>
       </c>
       <c r="C131" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D131" t="s">
         <v>404</v>
@@ -4511,7 +4520,7 @@
         <v>412</v>
       </c>
       <c r="C134" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="D134" t="s">
         <v>413</v>
@@ -4525,7 +4534,7 @@
         <v>415</v>
       </c>
       <c r="C135" t="s">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="D135" t="s">
         <v>416</v>
@@ -4539,7 +4548,7 @@
         <v>418</v>
       </c>
       <c r="C136" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D136" t="s">
         <v>419</v>
@@ -4595,7 +4604,7 @@
         <v>430</v>
       </c>
       <c r="C140" t="s">
-        <v>303</v>
+        <v>191</v>
       </c>
       <c r="D140" t="s">
         <v>431</v>
@@ -4609,7 +4618,7 @@
         <v>433</v>
       </c>
       <c r="C141" t="s">
-        <v>191</v>
+        <v>297</v>
       </c>
       <c r="D141" t="s">
         <v>434</v>
@@ -4651,7 +4660,7 @@
         <v>442</v>
       </c>
       <c r="C144" t="s">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="D144" t="s">
         <v>443</v>
@@ -4665,7 +4674,7 @@
         <v>445</v>
       </c>
       <c r="C145" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="D145" t="s">
         <v>446</v>
@@ -4679,7 +4688,7 @@
         <v>448</v>
       </c>
       <c r="C146" t="s">
-        <v>303</v>
+        <v>191</v>
       </c>
       <c r="D146" t="s">
         <v>449</v>
@@ -4693,7 +4702,7 @@
         <v>451</v>
       </c>
       <c r="C147" t="s">
-        <v>148</v>
+        <v>373</v>
       </c>
       <c r="D147" t="s">
         <v>452</v>
@@ -4707,7 +4716,7 @@
         <v>454</v>
       </c>
       <c r="C148" t="s">
-        <v>373</v>
+        <v>148</v>
       </c>
       <c r="D148" t="s">
         <v>455</v>
@@ -4721,7 +4730,7 @@
         <v>457</v>
       </c>
       <c r="C149" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D149" t="s">
         <v>458</v>
@@ -4735,7 +4744,7 @@
         <v>460</v>
       </c>
       <c r="C150" t="s">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="D150" t="s">
         <v>461</v>
@@ -4749,7 +4758,7 @@
         <v>463</v>
       </c>
       <c r="C151" t="s">
-        <v>303</v>
+        <v>148</v>
       </c>
       <c r="D151" t="s">
         <v>464</v>
@@ -4777,7 +4786,7 @@
         <v>470</v>
       </c>
       <c r="C153" t="s">
-        <v>191</v>
+        <v>297</v>
       </c>
       <c r="D153" t="s">
         <v>471</v>
@@ -4805,7 +4814,7 @@
         <v>476</v>
       </c>
       <c r="C155" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="D155" t="s">
         <v>477</v>
@@ -4819,7 +4828,7 @@
         <v>479</v>
       </c>
       <c r="C156" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="D156" t="s">
         <v>480</v>
@@ -4833,7 +4842,7 @@
         <v>482</v>
       </c>
       <c r="C157" t="s">
-        <v>303</v>
+        <v>373</v>
       </c>
       <c r="D157" t="s">
         <v>483</v>
@@ -4847,7 +4856,7 @@
         <v>485</v>
       </c>
       <c r="C158" t="s">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="D158" t="s">
         <v>486</v>
@@ -4861,7 +4870,7 @@
         <v>488</v>
       </c>
       <c r="C159" t="s">
-        <v>303</v>
+        <v>148</v>
       </c>
       <c r="D159" t="s">
         <v>489</v>
@@ -4903,7 +4912,7 @@
         <v>497</v>
       </c>
       <c r="C162" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D162" t="s">
         <v>498</v>
@@ -4917,7 +4926,7 @@
         <v>500</v>
       </c>
       <c r="C163" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="D163" t="s">
         <v>501</v>
@@ -4931,7 +4940,7 @@
         <v>503</v>
       </c>
       <c r="C164" t="s">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="D164" t="s">
         <v>504</v>
@@ -4973,7 +4982,7 @@
         <v>512</v>
       </c>
       <c r="C167" t="s">
-        <v>303</v>
+        <v>52</v>
       </c>
       <c r="D167" t="s">
         <v>513</v>
@@ -4987,7 +4996,7 @@
         <v>515</v>
       </c>
       <c r="C168" t="s">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="D168" t="s">
         <v>516</v>
@@ -5001,7 +5010,7 @@
         <v>518</v>
       </c>
       <c r="C169" t="s">
-        <v>52</v>
+        <v>373</v>
       </c>
       <c r="D169" t="s">
         <v>519</v>
@@ -5043,7 +5052,7 @@
         <v>527</v>
       </c>
       <c r="C172" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D172" t="s">
         <v>528</v>
@@ -5057,7 +5066,7 @@
         <v>530</v>
       </c>
       <c r="C173" t="s">
-        <v>373</v>
+        <v>467</v>
       </c>
       <c r="D173" t="s">
         <v>531</v>
@@ -5071,7 +5080,7 @@
         <v>533</v>
       </c>
       <c r="C174" t="s">
-        <v>467</v>
+        <v>373</v>
       </c>
       <c r="D174" t="s">
         <v>534</v>
@@ -5127,7 +5136,7 @@
         <v>545</v>
       </c>
       <c r="C178" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D178" t="s">
         <v>546</v>
@@ -5169,7 +5178,7 @@
         <v>554</v>
       </c>
       <c r="C181" t="s">
-        <v>191</v>
+        <v>467</v>
       </c>
       <c r="D181" t="s">
         <v>555</v>
@@ -5183,7 +5192,7 @@
         <v>557</v>
       </c>
       <c r="C182" t="s">
-        <v>467</v>
+        <v>191</v>
       </c>
       <c r="D182" t="s">
         <v>558</v>
@@ -5211,7 +5220,7 @@
         <v>563</v>
       </c>
       <c r="C184" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D184" t="s">
         <v>564</v>
@@ -5225,7 +5234,7 @@
         <v>566</v>
       </c>
       <c r="C185" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D185" t="s">
         <v>567</v>
@@ -5267,7 +5276,7 @@
         <v>575</v>
       </c>
       <c r="C188" t="s">
-        <v>191</v>
+        <v>467</v>
       </c>
       <c r="D188" t="s">
         <v>576</v>
@@ -5281,7 +5290,7 @@
         <v>578</v>
       </c>
       <c r="C189" t="s">
-        <v>148</v>
+        <v>373</v>
       </c>
       <c r="D189" t="s">
         <v>579</v>
@@ -5295,7 +5304,7 @@
         <v>581</v>
       </c>
       <c r="C190" t="s">
-        <v>373</v>
+        <v>191</v>
       </c>
       <c r="D190" t="s">
         <v>582</v>
@@ -5309,7 +5318,7 @@
         <v>584</v>
       </c>
       <c r="C191" t="s">
-        <v>467</v>
+        <v>297</v>
       </c>
       <c r="D191" t="s">
         <v>585</v>
@@ -5337,7 +5346,7 @@
         <v>590</v>
       </c>
       <c r="C193" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="D193" t="s">
         <v>591</v>
@@ -5351,7 +5360,7 @@
         <v>593</v>
       </c>
       <c r="C194" t="s">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="D194" t="s">
         <v>594</v>
@@ -5365,7 +5374,7 @@
         <v>596</v>
       </c>
       <c r="C195" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D195" t="s">
         <v>597</v>
@@ -5393,7 +5402,7 @@
         <v>602</v>
       </c>
       <c r="C197" t="s">
-        <v>467</v>
+        <v>81</v>
       </c>
       <c r="D197" t="s">
         <v>603</v>
@@ -5407,7 +5416,7 @@
         <v>605</v>
       </c>
       <c r="C198" t="s">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="D198" t="s">
         <v>606</v>
@@ -5421,7 +5430,7 @@
         <v>608</v>
       </c>
       <c r="C199" t="s">
-        <v>303</v>
+        <v>467</v>
       </c>
       <c r="D199" t="s">
         <v>609</v>
@@ -5466,46 +5475,46 @@
         <v>373</v>
       </c>
       <c r="D202" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B203" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C203" t="s">
-        <v>39</v>
+        <v>297</v>
       </c>
       <c r="D203" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B204" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C204" t="s">
-        <v>373</v>
+        <v>39</v>
       </c>
       <c r="D204" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B205" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C205" t="s">
-        <v>626</v>
+        <v>467</v>
       </c>
       <c r="D205" t="s">
         <v>627</v>
@@ -5533,7 +5542,7 @@
         <v>632</v>
       </c>
       <c r="C207" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D207" t="s">
         <v>633</v>
@@ -5561,584 +5570,584 @@
         <v>638</v>
       </c>
       <c r="C209" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D209" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B210" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C210" t="s">
         <v>191</v>
       </c>
       <c r="D210" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B211" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C211" t="s">
         <v>191</v>
       </c>
       <c r="D211" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B212" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C212" t="s">
         <v>148</v>
       </c>
       <c r="D212" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B213" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C213" t="s">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="D213" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B214" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C214" t="s">
-        <v>303</v>
+        <v>39</v>
       </c>
       <c r="D214" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B215" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C215" t="s">
-        <v>39</v>
+        <v>373</v>
       </c>
       <c r="D215" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B216" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C216" t="s">
-        <v>303</v>
+        <v>639</v>
       </c>
       <c r="D216" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B217" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C217" t="s">
-        <v>626</v>
+        <v>191</v>
       </c>
       <c r="D217" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B218" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C218" t="s">
         <v>467</v>
       </c>
       <c r="D218" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B219" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C219" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D219" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B220" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C220" t="s">
-        <v>191</v>
+        <v>297</v>
       </c>
       <c r="D220" t="s">
-        <v>609</v>
+        <v>673</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B221" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C221" t="s">
-        <v>191</v>
+        <v>297</v>
       </c>
       <c r="D221" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B222" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C222" t="s">
         <v>467</v>
       </c>
       <c r="D222" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B223" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C223" t="s">
         <v>148</v>
       </c>
       <c r="D223" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B224" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C224" t="s">
         <v>373</v>
       </c>
       <c r="D224" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B225" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C225" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D225" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B226" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C226" t="s">
         <v>373</v>
       </c>
       <c r="D226" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B227" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C227" t="s">
         <v>52</v>
       </c>
       <c r="D227" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B228" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C228" t="s">
         <v>373</v>
       </c>
       <c r="D228" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B229" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C229" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D229" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B230" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C230" t="s">
-        <v>52</v>
+        <v>373</v>
       </c>
       <c r="D230" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B231" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C231" t="s">
-        <v>373</v>
+        <v>467</v>
       </c>
       <c r="D231" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B232" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C232" t="s">
-        <v>467</v>
+        <v>52</v>
       </c>
       <c r="D232" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B233" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C233" t="s">
-        <v>626</v>
+        <v>373</v>
       </c>
       <c r="D233" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B234" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C234" t="s">
-        <v>373</v>
+        <v>639</v>
       </c>
       <c r="D234" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B235" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C235" t="s">
-        <v>303</v>
+        <v>148</v>
       </c>
       <c r="D235" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B236" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C236" t="s">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="D236" t="s">
-        <v>609</v>
+        <v>721</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B237" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C237" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D237" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B238" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C238" t="s">
         <v>81</v>
       </c>
       <c r="D238" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B239" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C239" t="s">
-        <v>626</v>
+        <v>297</v>
       </c>
       <c r="D239" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B240" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C240" t="s">
-        <v>303</v>
+        <v>639</v>
       </c>
       <c r="D240" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B241" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C241" t="s">
         <v>373</v>
       </c>
       <c r="D241" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B242" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C242" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D242" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B243" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C243" t="s">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="D243" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B244" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C244" t="s">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="D244" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B245" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C245" t="s">
-        <v>303</v>
+        <v>373</v>
       </c>
       <c r="D245" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B246" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C246" t="s">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="D246" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B247" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C247" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D247" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B248" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C248" t="s">
         <v>191</v>
       </c>
       <c r="D248" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B249" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C249" t="s">
         <v>191</v>
       </c>
       <c r="D249" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B250" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C250" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D250" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
